--- a/Injections/InjectionData_Template.xlsx
+++ b/Injections/InjectionData_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ie.admin\Documents\EcuadorData_2022\Injections\2022-06-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Injections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8CCBC-05EE-49E0-A8AD-F3CC824E1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3BCCB-DB96-D444-82F9-E87C4D9493AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Injection Date</t>
   </si>
@@ -126,12 +124,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>20m</t>
   </si>
   <si>
@@ -253,6 +245,21 @@
   </si>
   <si>
     <t>Stream water volume</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Qtotal</t>
   </si>
 </sst>
 </file>
@@ -394,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -417,6 +424,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2009,16 +2017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2345,16 +2353,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B07F5-C3C0-4DE1-9537-1DA4075EB81C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2362,15 +2370,15 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2378,39 +2386,44 @@
         <v>0.55972222222222223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.62013888888888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="17">
         <v>50</v>
@@ -2419,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2443,9 +2456,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <f>B10*B11/B9</f>
@@ -2455,98 +2468,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>5060</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>13.6</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>6456</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2560,24 +2582,28 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>237</v>
+      </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -2585,11 +2611,13 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5060</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -2597,11 +2625,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B4" s="13">
+        <v>13.6</v>
+      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -2609,11 +2639,13 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6456</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2653,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2629,7 +2661,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2637,7 +2669,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2645,7 +2677,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2653,52 +2685,66 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>100</v>
       </c>
+      <c r="B12">
+        <v>12.6</v>
+      </c>
+      <c r="C12">
+        <v>11.4</v>
+      </c>
       <c r="D12" s="10">
         <v>25.3</v>
       </c>
       <c r="E12">
         <v>11.2</v>
       </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10">
+        <v>2.7349999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>90</v>
       </c>
+      <c r="B13">
+        <v>13.4</v>
+      </c>
+      <c r="C13">
+        <v>11.4</v>
+      </c>
       <c r="D13" s="10">
         <v>25.5</v>
       </c>
@@ -2707,19 +2753,31 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>80</v>
       </c>
+      <c r="B14">
+        <v>11.7</v>
+      </c>
+      <c r="C14">
+        <v>12.5</v>
+      </c>
       <c r="D14" s="10">
         <v>26.5</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>70</v>
       </c>
+      <c r="B15">
+        <v>12.4</v>
+      </c>
+      <c r="C15">
+        <v>11.6</v>
+      </c>
       <c r="D15" s="10">
         <v>26.2</v>
       </c>
@@ -2728,31 +2786,51 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>60</v>
       </c>
+      <c r="B16">
+        <v>12.6</v>
+      </c>
+      <c r="C16">
+        <v>11.6</v>
+      </c>
       <c r="D16" s="10">
         <v>26.9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>50</v>
       </c>
+      <c r="B17">
+        <v>12.7</v>
+      </c>
+      <c r="C17">
+        <v>11.6</v>
+      </c>
       <c r="D17" s="10">
         <v>27.4</v>
       </c>
       <c r="E17">
         <v>11.5</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="10">
+        <v>3.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>40</v>
       </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>11.5</v>
+      </c>
       <c r="D18" s="10">
         <v>28.1</v>
       </c>
@@ -2761,10 +2839,16 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>30</v>
       </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>11.6</v>
+      </c>
       <c r="D19" s="10">
         <v>28.3</v>
       </c>
@@ -2773,22 +2857,36 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>11.6</v>
+      </c>
       <c r="D20" s="10">
         <v>28.3</v>
       </c>
       <c r="E20">
         <v>11.5</v>
       </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10">
+        <v>4.62E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>10</v>
       </c>
+      <c r="B21">
+        <v>13.4</v>
+      </c>
+      <c r="C21">
+        <v>11.8</v>
+      </c>
       <c r="D21" s="10">
         <v>28.9</v>
       </c>
@@ -2797,9 +2895,15 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>0</v>
+      </c>
+      <c r="B22">
+        <v>13.7</v>
+      </c>
+      <c r="C22">
+        <v>11.9</v>
       </c>
       <c r="D22" s="10">
         <v>28.7</v>
@@ -2807,7 +2911,9 @@
       <c r="E22">
         <v>11.5</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22">
+        <v>3.6080000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,15 +2925,15 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +2941,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2868,15 +2974,15 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2902,7 +3008,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2925,7 +3031,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2951,7 +3057,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -2977,7 +3083,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40</v>
       </c>
@@ -3009,7 +3115,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50</v>
       </c>
@@ -3038,7 +3144,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>60</v>
       </c>
@@ -3067,7 +3173,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
@@ -3096,7 +3202,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>80</v>
       </c>
@@ -3125,7 +3231,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>90</v>
       </c>
@@ -3151,7 +3257,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -3188,27 +3294,27 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.55972222222222223</v>
       </c>
@@ -3216,7 +3322,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.56666666666666665</v>
       </c>
@@ -3224,7 +3330,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.57361111111111118</v>
       </c>
@@ -3232,7 +3338,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.5805555555555556</v>
       </c>
@@ -3240,7 +3346,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.58750000000000002</v>
       </c>
@@ -3248,7 +3354,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.59444444444444444</v>
       </c>
@@ -3256,7 +3362,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.60138888888888886</v>
       </c>
@@ -3264,7 +3370,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.60833333333333328</v>
       </c>
@@ -3272,7 +3378,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.61527777777777781</v>
       </c>
@@ -3280,14 +3386,14 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3297,59 +3403,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CA3F9D-1ACC-497C-B502-156E9E10D37F}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="15">
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="15">
         <v>0.60486111111111118</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="15">
         <v>0.62083333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3361,7 +3467,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3373,7 +3479,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3385,7 +3491,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3397,7 +3503,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3409,7 +3515,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3421,7 +3527,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3433,7 +3539,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3445,7 +3551,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3457,7 +3563,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3469,7 +3575,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -3481,7 +3587,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -3493,7 +3599,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -3505,7 +3611,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
@@ -3517,7 +3623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13.5</v>
       </c>
@@ -3529,7 +3635,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -3541,7 +3647,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14.5</v>
       </c>
@@ -3553,7 +3659,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3565,7 +3671,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15.5</v>
       </c>
@@ -3577,7 +3683,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3589,7 +3695,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>16.5</v>
       </c>
@@ -3601,7 +3707,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>17</v>
       </c>
@@ -3613,7 +3719,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>17.5</v>
       </c>
@@ -3625,7 +3731,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>18</v>
       </c>
@@ -3637,7 +3743,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>18.5</v>
       </c>
@@ -3649,7 +3755,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>19</v>
       </c>
@@ -3661,7 +3767,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>19.5</v>
       </c>
@@ -3673,7 +3779,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3685,7 +3791,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20.5</v>
       </c>
@@ -3697,7 +3803,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>21</v>
       </c>
@@ -3709,7 +3815,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>21.5</v>
       </c>
@@ -3721,7 +3827,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>22</v>
       </c>
@@ -3733,7 +3839,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>22.5</v>
       </c>
@@ -3745,7 +3851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>23</v>
       </c>
@@ -3757,7 +3863,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>23.5</v>
       </c>
@@ -3769,7 +3875,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24</v>
       </c>
@@ -3781,7 +3887,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>24.5</v>
       </c>
@@ -3793,7 +3899,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>25</v>
       </c>
@@ -3805,7 +3911,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>25.5</v>
       </c>
@@ -3817,7 +3923,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>26</v>
       </c>
@@ -3829,7 +3935,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>26.5</v>
       </c>
@@ -3841,7 +3947,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>27</v>
       </c>
@@ -3850,7 +3956,7 @@
         <v>0.58402777777777781</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27.5</v>
       </c>
@@ -3862,7 +3968,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ref="A50:A81" si="1">A49+0.5</f>
         <v>28</v>
@@ -3875,7 +3981,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>28.5</v>
@@ -3885,7 +3991,7 @@
         <v>0.58506944444444442</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3898,7 +4004,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>29.5</v>
@@ -3911,7 +4017,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3924,7 +4030,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>30.5</v>
@@ -3937,7 +4043,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3950,7 +4056,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>31.5</v>
@@ -3963,7 +4069,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3976,7 +4082,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>32.5</v>
@@ -3989,7 +4095,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -4002,7 +4108,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>33.5</v>
@@ -4015,7 +4121,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -4028,7 +4134,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>34.5</v>
@@ -4041,7 +4147,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -4054,7 +4160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>35.5</v>
@@ -4067,7 +4173,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -4080,7 +4186,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>36.5</v>
@@ -4093,7 +4199,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -4106,7 +4212,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>37.5</v>
@@ -4119,7 +4225,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -4132,7 +4238,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>38.5</v>
@@ -4145,7 +4251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -4158,7 +4264,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>39.5</v>
@@ -4171,7 +4277,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -4184,7 +4290,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>40.5</v>
@@ -4197,7 +4303,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -4210,7 +4316,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>41.5</v>
@@ -4223,7 +4329,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -4236,7 +4342,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>42.5</v>
@@ -4249,7 +4355,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4262,7 +4368,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>43.5</v>
@@ -4275,7 +4381,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" ref="A82:A109" si="3">A81+0.5</f>
         <v>44</v>
@@ -4288,7 +4394,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>44.5</v>
@@ -4301,7 +4407,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -4314,7 +4420,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>45.5</v>
@@ -4327,7 +4433,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -4340,7 +4446,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>46.5</v>
@@ -4353,7 +4459,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -4366,7 +4472,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>47.5</v>
@@ -4379,7 +4485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -4392,7 +4498,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>48.5</v>
@@ -4405,7 +4511,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -4418,7 +4524,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>49.5</v>
@@ -4431,7 +4537,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -4444,7 +4550,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>50.5</v>
@@ -4457,7 +4563,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4470,7 +4576,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>51.5</v>
@@ -4483,7 +4589,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4496,7 +4602,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>52.5</v>
@@ -4509,7 +4615,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4522,7 +4628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>53.5</v>
@@ -4535,7 +4641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4548,7 +4654,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>54.5</v>
@@ -4561,7 +4667,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4574,7 +4680,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>55.5</v>
@@ -4587,7 +4693,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4600,7 +4706,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>56.5</v>
@@ -4613,7 +4719,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4626,7 +4732,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>57.5</v>
@@ -4639,17 +4745,17 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -4661,19 +4767,19 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" ref="B113:B130" si="4">$B$5+A113/24/60</f>
+        <f t="shared" ref="B113:B176" si="4">$B$5+A113/24/60</f>
         <v>0.62152777777777779</v>
       </c>
       <c r="C113">
         <v>25.8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4685,7 +4791,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4697,7 +4803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <f>A115+1</f>
         <v>4</v>
@@ -4710,7 +4816,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" ref="A117:A129" si="5">A116+1</f>
         <v>5</v>
@@ -4723,7 +4829,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4736,7 +4842,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4749,7 +4855,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -4762,7 +4868,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -4775,7 +4881,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -4788,7 +4894,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -4801,7 +4907,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -4814,7 +4920,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -4827,7 +4933,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -4840,7 +4946,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4853,7 +4959,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -4866,7 +4972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -4879,7 +4985,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>17.5</v>
       </c>
@@ -4891,202 +4997,781 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" ref="A131:A163" si="6">A130+0.5</f>
+        <f t="shared" ref="A131:A191" si="6">A130+0.5</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C131">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="6"/>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63368055555555558</v>
+      </c>
+      <c r="C132">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C133">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63437500000000002</v>
+      </c>
+      <c r="C134">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C135">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63506944444444446</v>
+      </c>
+      <c r="C136">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C137">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63576388888888891</v>
+      </c>
+      <c r="C138">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="C139">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63645833333333335</v>
+      </c>
+      <c r="C140">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63680555555555562</v>
+      </c>
+      <c r="C141">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="6"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63715277777777779</v>
+      </c>
+      <c r="C142">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="C143">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="6"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63784722222222223</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63819444444444451</v>
+      </c>
+      <c r="C145">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63854166666666667</v>
+      </c>
+      <c r="C146">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C147">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="6"/>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63923611111111112</v>
+      </c>
+      <c r="C148">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63958333333333339</v>
+      </c>
+      <c r="C149">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63993055555555556</v>
+      </c>
+      <c r="C150">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="C151">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <f t="shared" si="4"/>
+        <v>0.640625</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64097222222222228</v>
+      </c>
+      <c r="C153">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="6"/>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64131944444444444</v>
+      </c>
+      <c r="C154">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="C155">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="6"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64201388888888888</v>
+      </c>
+      <c r="C156">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="C157">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64270833333333333</v>
+      </c>
+      <c r="C158">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C159">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="6"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64340277777777777</v>
+      </c>
+      <c r="C160">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="C161">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="6"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64409722222222221</v>
+      </c>
+      <c r="C162">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="6"/>
         <v>34</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C163">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="6"/>
+        <v>34.5</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64479166666666665</v>
+      </c>
+      <c r="C164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64513888888888893</v>
+      </c>
+      <c r="C165">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="6"/>
+        <v>35.5</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64548611111111109</v>
+      </c>
+      <c r="C166">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C167">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="6"/>
+        <v>36.5</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64618055555555554</v>
+      </c>
+      <c r="C168">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C169">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64687499999999998</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="B171" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="C171">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="6"/>
+        <v>38.5</v>
+      </c>
+      <c r="B172" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64756944444444442</v>
+      </c>
+      <c r="C172">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="B173" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="C173">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="6"/>
+        <v>39.5</v>
+      </c>
+      <c r="B174" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64826388888888886</v>
+      </c>
+      <c r="C174">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="C175">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>41</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C176">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>42</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" ref="B177:B191" si="7">$B$5+A177/24/60</f>
+        <v>0.65</v>
+      </c>
+      <c r="C177">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>43</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="C178">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>44</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="C179">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>45</v>
+      </c>
+      <c r="B180" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="C180">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>46</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C181">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>47</v>
+      </c>
+      <c r="B182" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="C182">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>48</v>
+      </c>
+      <c r="B183" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="C183">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>49</v>
+      </c>
+      <c r="B184" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="C184">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>50</v>
+      </c>
+      <c r="B185" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="C185">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>51</v>
+      </c>
+      <c r="B186" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65625</v>
+      </c>
+      <c r="C186">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>52</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="C187">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>53</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="C188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>54</v>
+      </c>
+      <c r="B189" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="C189">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>55</v>
+      </c>
+      <c r="B190" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="C190">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>56</v>
+      </c>
+      <c r="B191" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C191">
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>
@@ -5097,442 +5782,1170 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30259CBD-CE75-4878-A137-CF457F79FFE9}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1">
+      <c r="G3" s="1">
         <v>0.49583333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>F6/100</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>SUM(J6:J24)</f>
+        <v>3.6075E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.04</v>
+      </c>
+      <c r="I7">
+        <f>(F7/100+(F8/100-F7/100)/2)</f>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J23" si="0">(I7-I6)*(G7/100)*H7</f>
+        <v>6.900000000000017E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8">
+        <f>(F8/100+(F9/100-F8/100)/2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5.6249999999999801E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>120</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>0.06</v>
+      </c>
+      <c r="I9">
+        <f>(F9/100+(F10/100-F9/100)/2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="J9">
+        <f>(I9-I8)*(G9/100)*H9</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>130</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>0.02</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I23" si="1">(F10/100+(F11/100-F10/100)/2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J23" si="2">(I10-I9)*(G10/100)*H10</f>
+        <v>4.8000000000000045E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>0.02</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999865E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>145</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>F32/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="K32">
+        <f>SUM(J32:J50)</f>
+        <v>4.62E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0.19</v>
+      </c>
+      <c r="I33">
+        <f>(F33/100+(F34/100-F33/100)/2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J49" si="3">(I33-I32)*(G33/100)*H33</f>
+        <v>1.7100000000000006E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>45</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>0.11</v>
+      </c>
+      <c r="I34">
+        <f>(F34/100+(F35/100-F34/100)/2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>9.8999999999999978E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>55</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>0.18</v>
+      </c>
+      <c r="I35">
+        <f>(F35/100+(F36/100-F35/100)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J35">
+        <f>(I35-I34)*(G35/100)*H35</f>
+        <v>1.6199999999999988E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>0.03</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I49" si="4">(F36/100+(F37/100-F36/100)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J49" si="5">(I36-I35)*(G36/100)*H36</f>
+        <v>1.8000000000000015E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>65</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>0.01</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000011E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8">
+    <row r="52" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>F56/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="K56">
+        <f>SUM(J56:J74)</f>
+        <v>3.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>0.08</v>
+      </c>
+      <c r="I57">
+        <f>(F57/100+(F58/100-F57/100)/2)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J73" si="6">(I57-I56)*(G57/100)*H57</f>
+        <v>4.8000000000000007E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>110</v>
-      </c>
-      <c r="B9">
+      <c r="I58">
+        <f>(F58/100+(F59/100-F58/100)/2)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000009E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>14</v>
+      </c>
+      <c r="H59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I59">
+        <f>(F59/100+(F60/100-F59/100)/2)</f>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="J59">
+        <f>(I59-I58)*(G59/100)*H59</f>
+        <v>9.7999999999999888E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I73" si="7">(F60/100+(F61/100-F60/100)/2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J73" si="8">(I60-I59)*(G60/100)*H60</f>
+        <v>5.600000000000006E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>40</v>
+      </c>
+      <c r="G61">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>0.12</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>8.4000000000000079E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>45</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>0.09</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="7"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>4.4999999999999945E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>120</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>130</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>140</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>145</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="78" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.5131944444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="G78" s="1">
+        <v>0.55763888888888891</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="G80" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" t="s">
+        <v>71</v>
+      </c>
+      <c r="J80" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>F81/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="K81">
+        <f>SUM(J81:J99)</f>
+        <v>2.7350000000000013E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
+      <c r="H82">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>65</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I82">
+        <f>(F82/100+(F83/100-F82/100)/2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82:J98" si="9">(I82-I81)*(G82/100)*H82</f>
+        <v>4.6200000000000008E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>28</v>
+      </c>
+      <c r="H83">
+        <v>0.04</v>
+      </c>
+      <c r="I83">
+        <f>(F83/100+(F84/100-F83/100)/2)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>1.1199999999999986E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>70</v>
+      </c>
+      <c r="G84">
+        <v>36</v>
+      </c>
+      <c r="H84">
+        <v>0.36</v>
+      </c>
+      <c r="I84">
+        <f>(F84/100+(F85/100-F84/100)/2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J84">
+        <f>(I84-I83)*(G84/100)*H84</f>
+        <v>1.2960000000000011E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F85">
         <v>80</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85:I98" si="10">(F85/100+(F86/100-F85/100)/2)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85:J98" si="11">(I85-I84)*(G85/100)*H85</f>
+        <v>2.8000000000000026E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>90</v>
+      </c>
+      <c r="G86">
         <v>20</v>
       </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.55763888888888891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>40</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>28</v>
-      </c>
-      <c r="C46">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>70</v>
-      </c>
-      <c r="B48">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>80</v>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>90</v>
-      </c>
-      <c r="B50">
-        <v>20</v>
-      </c>
-      <c r="C50">
+      <c r="H86">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>5.8499999999999976E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F87">
         <v>95</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/Injections/InjectionData_Template.xlsx
+++ b/Injections/InjectionData_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Injections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3BCCB-DB96-D444-82F9-E87C4D9493AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A13C4-032E-F94F-8AA7-5E0F62ABE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
